--- a/medicine/Pharmacie/Ublituximab/Ublituximab.xlsx
+++ b/medicine/Pharmacie/Ublituximab/Ublituximab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'ublituximab, est un anticorps monoclonal dirigé contre le CD20 et utilisé dans le traitement de la sclérose en plaques. Il est vendu sous la marque Briumvi[1].
+L'ublituximab, est un anticorps monoclonal dirigé contre le CD20 et utilisé dans le traitement de la sclérose en plaques. Il est vendu sous la marque Briumvi.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter la sclérose en plaques. Plus précisément, il est utilisé pour le syndrome cliniquement isolé, la maladie cyclique et la maladie progressive secondaire active. Il est administré par injection intraveineuse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter la sclérose en plaques. Plus précisément, il est utilisé pour le syndrome cliniquement isolé, la maladie cyclique et la maladie progressive secondaire active. Il est administré par injection intraveineuse.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires courants comprennent des réactions à la perfusion et des infections des voies respiratoires supérieures; d'autres effets secondaires peuvent inclure des infections et un faible taux d'immunoglobulines. L'utilisation pendant la grossesse peut nuire au fœtus.
 </t>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ublituximab a été approuvé pour un usage médical aux États-Unis en 2022. En 2023, il a reçu un avis positif de la part des régulateurs européens. Aux États-Unis, cela coûte environ 64 000 dollars américains par an à partir de 2023[2],[3],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ublituximab a été approuvé pour un usage médical aux États-Unis en 2022. En 2023, il a reçu un avis positif de la part des régulateurs européens. Aux États-Unis, cela coûte environ 64 000 dollars américains par an à partir de 2023.
 </t>
         </is>
       </c>
